--- a/public/sample_uploads/fund_ratios/portfolio_income.xlsx
+++ b/public/sample_uploads/fund_ratios/portfolio_income.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f10f76f200b1328/Desktop/ratios auto test/bulk files/fund 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f10f76f200b1328/Desktop/ratios auto test/bulk files/fund 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{F3B9B184-9235-46DE-BFF5-CF36938A3241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BE7BE86-D75C-4A21-BA02-4CCA7BEAAE90}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{F3B9B184-9235-46DE-BFF5-CF36938A3241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8182DED-D7AA-46B0-A508-09F9CE5FEA68}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -235,13 +235,13 @@
     <t>Instrument *</t>
   </si>
   <si>
-    <t>Demo Fund 1</t>
-  </si>
-  <si>
-    <t>TSTF1 Port Co 1</t>
-  </si>
-  <si>
     <t>Income distribution for 2023-24</t>
+  </si>
+  <si>
+    <t>Demo Fund 2</t>
+  </si>
+  <si>
+    <t>TSTF2 Port Co 3</t>
   </si>
   <si>
     <t>Equity</t>
@@ -686,7 +686,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="A3:XFD3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -728,19 +728,19 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>45473</v>
       </c>
       <c r="D2" s="5">
-        <v>50000000</v>
+        <v>10000000</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>
